--- a/step5-Output.xlsx
+++ b/step5-Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66BFD0D-9287-40DF-BB67-CA09C68F424B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010EDEB5-5976-4CCF-A5D7-8C7F7BC059BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,14 +183,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,7 +534,7 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +605,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>100</v>
       </c>
       <c r="H3" s="1"/>
@@ -617,16 +617,16 @@
         <f>AVERAGE(D2:D31)</f>
         <v>285.16666666666669</v>
       </c>
-      <c r="K3" s="3">
-        <f>J3-1.96*I3/SQRT(30)</f>
-        <v>278.57764309933282</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <f>J3+1.96*I3/SQRT(30)</f>
-        <v>291.75569023400055</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="K3" s="5">
+        <f>J3-2.045*I3/SQRT(30)</f>
+        <v>278.2918946283005</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <f>J3+2.045*I3/SQRT(30)</f>
+        <v>292.04143870503287</v>
+      </c>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -644,7 +644,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>101</v>
       </c>
       <c r="H4" s="1"/>
@@ -656,16 +656,16 @@
         <f>AVERAGE(D32:D61)</f>
         <v>278.5</v>
       </c>
-      <c r="K4" s="3">
-        <f>J4-1.96*I4/SQRT(30)</f>
-        <v>272.40991769113623</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <f>J4+1.96*I4/SQRT(30)</f>
-        <v>284.59008230886377</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K11" si="0">J4-2.045*I4/SQRT(30)</f>
+        <v>272.14580697876204</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M11" si="1">J4+2.045*I4/SQRT(30)</f>
+        <v>284.85419302123796</v>
+      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -683,7 +683,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>102</v>
       </c>
       <c r="H5" s="1"/>
@@ -695,16 +695,16 @@
         <f>AVERAGE(D62:D91)</f>
         <v>96.466666666666669</v>
       </c>
-      <c r="K5" s="3">
-        <f>J5-1.96*I5/SQRT(30)</f>
-        <v>92.717397688621503</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3">
-        <f>J5+1.96*I5/SQRT(30)</f>
-        <v>100.21593564471183</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>92.554801840083826</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>100.37853149324951</v>
+      </c>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -722,7 +722,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>103</v>
       </c>
       <c r="H6" s="1"/>
@@ -734,16 +734,16 @@
         <f>AVERAGE(D92:D121)</f>
         <v>0.80058404124075444</v>
       </c>
-      <c r="K6" s="3">
-        <f>J6-1.96*I6/SQRT(30)</f>
-        <v>0.76907523911364006</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <f>J6+1.96*I6/SQRT(30)</f>
-        <v>0.83209284336786882</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76770878596016834</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.83345929652134054</v>
+      </c>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -761,7 +761,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>104</v>
       </c>
       <c r="H7" s="1"/>
@@ -773,16 +773,16 @@
         <f>AVERAGE(D122:D151)</f>
         <v>90.6</v>
       </c>
-      <c r="K7" s="3">
-        <f>J7-1.96*I7/SQRT(30)</f>
-        <v>87.154057738590851</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <f>J7+1.96*I7/SQRT(30)</f>
-        <v>94.045942261409138</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>87.004616365009326</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>94.195383634990662</v>
+      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -800,7 +800,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>105</v>
       </c>
       <c r="I8">
@@ -811,16 +811,16 @@
         <f>AVERAGE(D152:D181)</f>
         <v>0.75235233666315315</v>
       </c>
-      <c r="K8" s="3">
-        <f>J8-1.96*I8/SQRT(30)</f>
-        <v>0.7240076202367981</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <f>J8+1.96*I8/SQRT(30)</f>
-        <v>0.78069705308950821</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.72277838508565517</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.78192628824065114</v>
+      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -838,7 +838,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>106</v>
       </c>
       <c r="I9">
@@ -849,16 +849,16 @@
         <f>AVERAGE(D182:D211)</f>
         <v>93.833333333333329</v>
       </c>
-      <c r="K9" s="3">
-        <f>J9-1.96*I9/SQRT(30)</f>
-        <v>90.311993941693942</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3">
-        <f>J9+1.96*I9/SQRT(30)</f>
-        <v>97.354672724972716</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>90.159282794607549</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>97.507383872059108</v>
+      </c>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -876,7 +876,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>107</v>
       </c>
       <c r="I10">
@@ -887,16 +887,16 @@
         <f>AVERAGE(D212:D241)</f>
         <v>0.7783580943550521</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" ref="K10:K11" si="0">J10-1.96*I10/SQRT(30)</f>
-        <v>0.74916474214427009</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <f t="shared" ref="M10:M11" si="1">J10+1.96*I10/SQRT(30)</f>
-        <v>0.80755144656583411</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74789870391063928</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.80881748479946491</v>
+      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -914,7 +914,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>108</v>
       </c>
       <c r="I11">
@@ -925,16 +925,16 @@
         <f>AVERAGE(D242:D271)</f>
         <v>278.5</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
-        <v>272.40991769113623</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
+        <v>272.14580697876204</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
         <f t="shared" si="1"/>
-        <v>284.59008230886377</v>
-      </c>
-      <c r="N11" s="3"/>
+        <v>284.85419302123796</v>
+      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -972,7 +972,7 @@
       <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1" t="s">
         <v>9</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>100</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>101</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>103</v>
       </c>
       <c r="I17" t="s">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>104</v>
       </c>
       <c r="I18" t="s">
@@ -1123,7 +1123,7 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>105</v>
       </c>
       <c r="I19" t="s">
@@ -1146,7 +1146,7 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>106</v>
       </c>
       <c r="I20" t="s">
@@ -1169,7 +1169,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>107</v>
       </c>
       <c r="I21" t="s">
@@ -1192,7 +1192,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>108</v>
       </c>
       <c r="I22" t="s">
